--- a/steamcase/competition/competitionaddcase.xlsx
+++ b/steamcase/competition/competitionaddcase.xlsx
@@ -54,18 +54,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>classify_add_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/match-service/match/createMatch</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>新增一个赛事</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>"matchName":"18916899938"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -75,6 +67,14 @@
   </si>
   <si>
     <t>tearInterfaceDelOneMatch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>match_add_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增一个作品视频正常</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -454,7 +454,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -497,22 +497,22 @@
     </row>
     <row r="2" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="G2" t="s">
         <v>8</v>

--- a/steamcase/competition/competitionaddcase.xlsx
+++ b/steamcase/competition/competitionaddcase.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\litaojun\workspace\steamOmTest\steamcase\competition\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{48E2D203-7D43-40A5-9F65-F2F99A0A504E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="usermanager" sheetId="1" r:id="rId1"/>
@@ -74,14 +75,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>新增一个作品视频正常</t>
+    <t>新增一个赛事正常</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -450,11 +451,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/steamcase/competition/competitionaddcase.xlsx
+++ b/steamcase/competition/competitionaddcase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\litaojun\workspace\steamOmTest\steamcase\competition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{48E2D203-7D43-40A5-9F65-F2F99A0A504E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{D7551AF7-1EB5-4D68-B196-90D8BD6101C3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -59,23 +59,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>testMatchAddNor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tearInterfaceDelOneMatch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>match_add_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增一个赛事正常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>"matchName":"18916899938"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testMatchAddNor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tearInterfaceDelOneMatch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>match_add_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增一个赛事正常</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -455,7 +455,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -465,7 +465,7 @@
     <col min="3" max="3" width="19.125" customWidth="1"/>
     <col min="4" max="4" width="14.625" customWidth="1"/>
     <col min="5" max="5" width="15.25" customWidth="1"/>
-    <col min="6" max="6" width="25.125" customWidth="1"/>
+    <col min="6" max="6" width="28.375" customWidth="1"/>
     <col min="7" max="7" width="14.375" customWidth="1"/>
     <col min="8" max="8" width="14.5" customWidth="1"/>
   </cols>
@@ -498,22 +498,22 @@
     </row>
     <row r="2" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
       </c>
       <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="G2" t="s">
         <v>8</v>

--- a/steamcase/competition/competitionaddcase.xlsx
+++ b/steamcase/competition/competitionaddcase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\litaojun\workspace\steamOmTest\steamcase\competition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{D7551AF7-1EB5-4D68-B196-90D8BD6101C3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{27F215AE-1B37-4D29-B5F2-D0C2FF030212}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
   <si>
     <t>caseid</t>
   </si>
@@ -75,7 +75,40 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"matchName":"18916899938"</t>
+    <t>新增一个亲子赛场次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增一个国赛场次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>match_add_2</t>
+  </si>
+  <si>
+    <t>match_add_3</t>
+  </si>
+  <si>
+    <t>"matchName":"18916899938"
+"reqjsonfile":"competitionAddReq"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"matchName": "亲子赛测试"
+"applyStartTime": 1534931060000
+"applyEndTime": 1535708660000
+"parentId": 22
+"limitCount": 663
+"reqjsonfile":"competitionLabAddReq"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"matchName": "国赛测试"
+"applyStartTime": 1534931060000
+"applyEndTime": 1535708660000
+"parentId": 200
+"limitCount": 663
+"reqjsonfile":"competitionLabAddReq"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -452,10 +485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -465,7 +498,7 @@
     <col min="3" max="3" width="19.125" customWidth="1"/>
     <col min="4" max="4" width="14.625" customWidth="1"/>
     <col min="5" max="5" width="15.25" customWidth="1"/>
-    <col min="6" max="6" width="28.375" customWidth="1"/>
+    <col min="6" max="6" width="33.25" customWidth="1"/>
     <col min="7" max="7" width="14.375" customWidth="1"/>
     <col min="8" max="8" width="14.5" customWidth="1"/>
   </cols>
@@ -513,9 +546,55 @@
         <v>10</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s">
+      <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" t="s">
         <v>8</v>
       </c>
     </row>

--- a/steamcase/competition/competitionaddcase.xlsx
+++ b/steamcase/competition/competitionaddcase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\litaojun\workspace\steamOmTest\steamcase\competition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{27F215AE-1B37-4D29-B5F2-D0C2FF030212}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{1DE3412F-B4F2-41EB-B240-A52EEBC79ED5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -103,7 +103,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"matchName": "国赛测试"
+    <t>"matchName": "国赛测试test"
 "applyStartTime": 1534931060000
 "applyEndTime": 1535708660000
 "parentId": 200
@@ -488,7 +488,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/steamcase/competition/competitionaddcase.xlsx
+++ b/steamcase/competition/competitionaddcase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\litaojun\workspace\steamOmTest\steamcase\competition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{1DE3412F-B4F2-41EB-B240-A52EEBC79ED5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{54B06972-6B60-485A-B495-B665F36EADDE}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -488,7 +488,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -496,7 +496,7 @@
     <col min="1" max="1" width="12.25" customWidth="1"/>
     <col min="2" max="2" width="29.375" customWidth="1"/>
     <col min="3" max="3" width="19.125" customWidth="1"/>
-    <col min="4" max="4" width="14.625" customWidth="1"/>
+    <col min="4" max="4" width="23.125" customWidth="1"/>
     <col min="5" max="5" width="15.25" customWidth="1"/>
     <col min="6" max="6" width="33.25" customWidth="1"/>
     <col min="7" max="7" width="14.375" customWidth="1"/>

--- a/steamcase/competition/competitionaddcase.xlsx
+++ b/steamcase/competition/competitionaddcase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\litaojun\workspace\steamOmTest\steamcase\competition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{54B06972-6B60-485A-B495-B665F36EADDE}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{C51CA374-E24E-4052-B172-7437C1CABDD2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -94,19 +94,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"matchName": "亲子赛测试"
-"applyStartTime": 1534931060000
-"applyEndTime": 1535708660000
-"parentId": 22
-"limitCount": 663
-"reqjsonfile":"competitionLabAddReq"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>"matchName": "国赛测试test"
 "applyStartTime": 1534931060000
 "applyEndTime": 1535708660000
 "parentId": 200
+"limitCount": 663
+"reqjsonfile":"competitionLabAddReq"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"matchName": "亲子赛测试test"
+"applyStartTime": 1534931060000
+"applyEndTime": 1535708660000
+"parentId": 22
 "limitCount": 663
 "reqjsonfile":"competitionLabAddReq"</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -488,7 +488,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -497,8 +497,8 @@
     <col min="2" max="2" width="29.375" customWidth="1"/>
     <col min="3" max="3" width="19.125" customWidth="1"/>
     <col min="4" max="4" width="23.125" customWidth="1"/>
-    <col min="5" max="5" width="15.25" customWidth="1"/>
-    <col min="6" max="6" width="33.25" customWidth="1"/>
+    <col min="5" max="5" width="18" customWidth="1"/>
+    <col min="6" max="6" width="48.5" customWidth="1"/>
     <col min="7" max="7" width="14.375" customWidth="1"/>
     <col min="8" max="8" width="14.5" customWidth="1"/>
   </cols>
@@ -569,7 +569,7 @@
         <v>10</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G3" t="s">
         <v>8</v>
@@ -592,7 +592,7 @@
         <v>10</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G4" t="s">
         <v>8</v>
